--- a/bleuSingle.xlsx
+++ b/bleuSingle.xlsx
@@ -4212,10 +4212,10 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.25</c:v>
@@ -4224,7 +4224,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.25</c:v>
@@ -4263,7 +4263,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.25</c:v>
@@ -4278,13 +4278,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.75</c:v>
@@ -4341,16 +4341,16 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.75</c:v>
@@ -4407,7 +4407,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.25</c:v>
@@ -4422,7 +4422,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.25</c:v>
@@ -4431,25 +4431,25 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.75</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1</c:v>
@@ -4470,10 +4470,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0.5</c:v>
@@ -4482,13 +4482,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>0.5</c:v>
@@ -4497,25 +4497,25 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="122">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="125">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0.5</c:v>
@@ -4542,10 +4542,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0.75</c:v>
@@ -4560,7 +4560,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>0.75</c:v>
@@ -4587,7 +4587,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0.5</c:v>
@@ -4599,7 +4599,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>1</c:v>
@@ -4650,19 +4650,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>1</c:v>
@@ -4671,13 +4671,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>0.75</c:v>
@@ -4695,13 +4695,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>0.75</c:v>
@@ -4710,7 +4710,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>0.75</c:v>
@@ -4722,22 +4722,22 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>0.5</c:v>
@@ -4752,10 +4752,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>1</c:v>
@@ -4770,28 +4770,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>0.5</c:v>
@@ -4800,7 +4800,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>1</c:v>
@@ -4809,10 +4809,10 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>0.75</c:v>
@@ -4824,25 +4824,25 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>0.5</c:v>
@@ -4851,13 +4851,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="239">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="240">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>0.5</c:v>
@@ -4887,25 +4887,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>1</c:v>
@@ -4914,7 +4914,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>1</c:v>
@@ -4950,7 +4950,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>1</c:v>
@@ -10024,7 +10024,7 @@
   <dimension ref="A1:E376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10060,7 +10060,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7">
         <f xml:space="preserve"> CORREL(A2:A376,B2:B376)</f>
-        <v>0.46414863855937266</v>
+        <v>0.57064423017003429</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B27" s="3">
         <v>0.36745433117556803</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B28" s="3">
         <v>0.45686441796555199</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B31" s="3">
         <v>0.40944218723723402</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B44" s="3">
         <v>0.44179182268315698</v>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B49" s="3">
         <v>0.50045239380251005</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B50" s="3">
         <v>0.55279663872246099</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B51" s="3">
         <v>0.550568639187896</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B70" s="3">
         <v>0.49910551613889498</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B71" s="3">
         <v>0.53647875598583195</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B72" s="3">
         <v>0.64138652589816703</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B73" s="3">
         <v>0.53225208262245505</v>
@@ -11043,7 +11043,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B92" s="3">
         <v>0.44815017360408699</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B97" s="3">
         <v>0.49676358400793802</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B100" s="3">
         <v>0.33535699101570299</v>
@@ -11142,7 +11142,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B101" s="3">
         <v>0.60427507947135295</v>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B103" s="3">
         <v>0.49836865688724902</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B104" s="3">
         <v>0.34389312176578402</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B106" s="3">
         <v>0.605722455298358</v>
@@ -11274,7 +11274,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B113" s="3">
         <v>0.52403792620704304</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B114" s="3">
         <v>0.53072508071568003</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B117" s="3">
         <v>0.57817241972756905</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B119" s="3">
         <v>0.64933583095019698</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B122" s="3">
         <v>0.51371133086187004</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B124" s="3">
         <v>0.58817267872227696</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B125" s="3">
         <v>0.35058660127469898</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B126" s="3">
         <v>0.52846624599060998</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B128" s="3">
         <v>0.64138652589816703</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B137" s="3">
         <v>0.50694874147323199</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B138" s="3">
         <v>0.59650565335944195</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B143" s="3">
         <v>0.66083729898653598</v>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B152" s="3">
         <v>0.225455250106773</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B156" s="3">
         <v>0.46503802524475102</v>
@@ -11892,7 +11892,7 @@
       <c r="A169" s="3">
         <v>1</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>0.61397761967560804</v>
       </c>
       <c r="C169" s="3"/>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B173" s="3">
         <v>0.655491361059518</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B175" s="3">
         <v>0.782542290036643</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B177" s="3">
         <v>0.672885067846408</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B180" s="3">
         <v>0.777017965640735</v>
@@ -12021,7 +12021,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B181" s="3">
         <v>0.324916802926695</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B182" s="3">
         <v>0.64933583095019698</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B188" s="3">
         <v>0.71989265859245999</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B190" s="3">
         <v>0.61595087805599003</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B193" s="3">
         <v>0.74194466273650095</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B197" s="3">
         <v>0.613869285140628</v>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B199" s="3">
         <v>0.61646325087572196</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B201" s="3">
         <v>0.73359182592016903</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B202" s="3">
         <v>0.64933583095019698</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B207" s="3">
         <v>0.67742888465738205</v>
@@ -12318,7 +12318,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B208" s="3">
         <v>0.64870668978821</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B213" s="3">
         <v>0.68508369129695201</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B214" s="3">
         <v>0.81761290387845098</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B216" s="3">
         <v>0.66333466530429697</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B218" s="3">
         <v>0.782542290036643</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B220" s="3">
         <v>0.70556455438100296</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B223" s="3">
         <v>0.85552618587124496</v>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B226" s="3">
         <v>0.72424479860953195</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B227" s="3">
         <v>1</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B231" s="3">
         <v>0.45295408658120601</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B233" s="3">
         <v>1</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B235" s="3">
         <v>0.652719665321978</v>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B236" s="3">
         <v>0.644069384211024</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B237" s="3">
         <v>0.70710678118654702</v>
@@ -12670,7 +12670,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B240" s="3">
         <v>0.90483741803595896</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B241" s="3">
         <v>0.69109104677178101</v>
@@ -12692,7 +12692,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B242" s="3">
         <v>0.69893076227849404</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B252" s="3">
         <v>0.69130864654631596</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B254" s="3">
         <v>0.66417525793745402</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="B255" s="3">
         <v>0.78655371227065396</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B257" s="3">
         <v>0.80462573957066297</v>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B258" s="3">
         <v>0.62628449627654603</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B261" s="3">
         <v>0.35815887529262103</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B273" s="3">
         <v>0.37802707536522601</v>
@@ -14069,7 +14069,7 @@
       <c r="A367">
         <v>0.25</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="2">
         <v>0.77654535550444603</v>
       </c>
       <c r="C367" s="3"/>
